--- a/Bas-Project-main/Ontwerp/Burndownchar bas.xlsx
+++ b/Bas-Project-main/Ontwerp/Burndownchar bas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41EE345-38F0-4603-9244-F745035D6CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE53EB47-461A-42CC-BFCF-0B72C8D0C8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Taak</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Query maken</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Usecase diagram</t>
@@ -648,13 +645,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2150,12 +2147,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2172,7 +2171,7 @@
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2183,13 +2182,15 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -2206,7 +2207,7 @@
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -2217,15 +2218,15 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
+      <c r="G15" s="2">
+        <v>2</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -2234,15 +2235,15 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -2254,14 +2255,12 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -2270,15 +2269,15 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2295,7 +2294,7 @@
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2306,15 +2305,13 @@
       <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
@@ -2325,13 +2322,11 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -2341,14 +2336,14 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -2357,11 +2352,11 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6">
+        <v>2</v>
+      </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -2389,15 +2384,15 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
